--- a/Input/VBWIMQ1Q2Input.xlsx
+++ b/Input/VBWIMQ1Q2Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED12EA8E-126A-4641-BF16-7FE226E259BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19728F0-3657-4048-AEEA-2F8A6B52E357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-48" windowWidth="22188" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="924" yWindow="-48" windowWidth="22164" windowHeight="14496" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -100,12 +100,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -135,6 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +471,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,10 +484,9 @@
     <col min="4" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -497,36 +515,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>402</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>405</v>
       </c>
@@ -554,8 +573,9 @@
       <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>406</v>
       </c>
@@ -583,8 +603,9 @@
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>407</v>
       </c>
@@ -613,65 +634,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>408</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>409</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>410</v>
       </c>
@@ -700,235 +723,237 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>411</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>412</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>413</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>414</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>415</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>416</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>10</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>417</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>10</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>418</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -991,89 +1016,89 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="6">
         <v>421</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>422</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>10</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>423</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5" t="s">
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>9</v>
       </c>
     </row>
